--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-365840.3342990898</v>
+        <v>-368737.7625567275</v>
       </c>
     </row>
     <row r="7">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>10.78545761116871</v>
       </c>
       <c r="L2" t="n">
-        <v>12.3836958398638</v>
+        <v>12.38369583986409</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>10.78545761116987</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.21008304703158</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18.21008304703158</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924329</v>
+        <v>15.54112977924345</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.21008304703158</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4983113685817203</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4983113685821213</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>49.79500702712463</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>36.84447586050613</v>
+        <v>13.70732065777799</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -938,16 +938,16 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>12.10299546346979</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>12.84193026251984</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>49.79500702712463</v>
+        <v>16.44799022605969</v>
       </c>
       <c r="F6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>81.30196747731284</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>81.30196747731283</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>30.08282103867671</v>
@@ -1257,22 +1257,22 @@
         <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>89.42651845964519</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>107.2592468853285</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>3.625377488803587</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>269.8811238791509</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>38.86608569165918</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1576,22 +1576,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>129.7620843058691</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.5863970643553</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>325.0303252447978</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>343.6974462191563</v>
+        <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
         <v>291.2403613834999</v>
@@ -1658,13 +1658,13 @@
         <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429426</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>29.46776925221675</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8783163942143</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.91693778434403</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1986443782762</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
         <v>286.2037931948048</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>207.6545728063344</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1853,10 +1853,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295204</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659984</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C20" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894974</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295168</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645703</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W20" t="n">
         <v>317.630766365199</v>
@@ -2147,7 +2147,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189036</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464165</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221568</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452981</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
         <v>186.487270040142</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T30" t="n">
         <v>189.0833237787849</v>
@@ -2950,25 +2950,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3013,10 +3013,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545723</v>
@@ -3086,13 +3086,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T33" t="n">
         <v>189.0833237787849</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3196,16 +3196,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3244,13 +3244,13 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T36" t="n">
         <v>189.0833237787849</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659978</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139452802</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T39" t="n">
         <v>189.0833237787849</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.5262913945301</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T42" t="n">
         <v>189.0833237787849</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V43" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W43" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T45" t="n">
         <v>189.0833237787849</v>
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
         <v>186.4872700401421</v>
@@ -4198,7 +4198,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998809</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="C2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="D2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="E2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="F2" t="n">
-        <v>27.99306325828222</v>
+        <v>38.88746488572563</v>
       </c>
       <c r="G2" t="n">
-        <v>13.96559032039263</v>
+        <v>24.85999194783604</v>
       </c>
       <c r="H2" t="n">
-        <v>13.96559032039263</v>
+        <v>24.85999194783604</v>
       </c>
       <c r="I2" t="n">
-        <v>13.96559032039263</v>
+        <v>24.85999194783604</v>
       </c>
       <c r="J2" t="n">
-        <v>13.96559032039263</v>
+        <v>24.85999194783604</v>
       </c>
       <c r="K2" t="n">
-        <v>13.96559032039263</v>
+        <v>13.9655903203929</v>
       </c>
       <c r="L2" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="M2" t="n">
-        <v>19.48478886032379</v>
+        <v>19.48478886032349</v>
       </c>
       <c r="N2" t="n">
-        <v>37.51277107688506</v>
+        <v>37.51277107688448</v>
       </c>
       <c r="O2" t="n">
-        <v>45.83296563493001</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="P2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="R2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="S2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="T2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="U2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="V2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="W2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="X2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.9385640074857</v>
+        <v>45.83296563492911</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.54894081171695</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="C3" t="n">
-        <v>35.54894081171695</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="D3" t="n">
-        <v>35.54894081171695</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="E3" t="n">
-        <v>35.54894081171695</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="F3" t="n">
-        <v>35.54894081171695</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="G3" t="n">
-        <v>35.54894081171695</v>
+        <v>35.5489408117168</v>
       </c>
       <c r="H3" t="n">
-        <v>35.54894081171695</v>
+        <v>17.1549175318872</v>
       </c>
       <c r="I3" t="n">
-        <v>35.54894081171695</v>
+        <v>17.1549175318872</v>
       </c>
       <c r="J3" t="n">
-        <v>17.15491753188707</v>
+        <v>17.1549175318872</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032379</v>
+        <v>8.210894245726678</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688506</v>
+        <v>26.23887646228766</v>
       </c>
       <c r="N3" t="n">
-        <v>54.81234997156506</v>
+        <v>44.26685867884865</v>
       </c>
       <c r="O3" t="n">
-        <v>72.84033218812633</v>
+        <v>62.29484089540964</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812633</v>
+        <v>72.8403321881252</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.44630890829644</v>
+        <v>54.44630890829561</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890829644</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="S3" t="n">
-        <v>54.44630890829644</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="T3" t="n">
-        <v>54.44630890829644</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="U3" t="n">
-        <v>54.44630890829644</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="V3" t="n">
-        <v>54.44630890829644</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="W3" t="n">
-        <v>53.94296409154683</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="X3" t="n">
-        <v>53.94296409154683</v>
+        <v>53.94296409154639</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.94296409154683</v>
+        <v>53.94296409154639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762526</v>
+        <v>1.456806643762504</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
       <c r="C5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
       <c r="D5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
       <c r="E5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
       <c r="F5" t="n">
-        <v>104.6181590127069</v>
+        <v>35.14942342451921</v>
       </c>
       <c r="G5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="H5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="I5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="J5" t="n">
         <v>21.30364498231921</v>
@@ -4586,31 +4586,31 @@
         <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>154.9161459087924</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="R5" t="n">
-        <v>154.9161459087924</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9161459087924</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="T5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
       <c r="U5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
       <c r="V5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
       <c r="W5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
       <c r="X5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
       <c r="Y5" t="n">
-        <v>154.9161459087924</v>
+        <v>42.09492417372267</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="C6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="D6" t="n">
-        <v>104.5795743543409</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="E6" t="n">
-        <v>54.28158745825545</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="F6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="G6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="H6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="I6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4653,13 +4653,13 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N6" t="n">
-        <v>148.900255631031</v>
+        <v>121.1430747948175</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1973125878844</v>
+        <v>170.4401317516709</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4668,28 +4668,28 @@
         <v>167.8492079802444</v>
       </c>
       <c r="R6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="S6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="T6" t="n">
         <v>117.551221084159</v>
       </c>
       <c r="U6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="V6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="W6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="X6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="Y6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
     </row>
     <row r="7">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>336.3649920389078</v>
+      </c>
+      <c r="C8" t="n">
+        <v>336.3649920389078</v>
+      </c>
+      <c r="D8" t="n">
+        <v>336.3649920389078</v>
+      </c>
+      <c r="E8" t="n">
+        <v>336.3649920389078</v>
+      </c>
+      <c r="F8" t="n">
         <v>223.1198808016112</v>
       </c>
-      <c r="C8" t="n">
-        <v>223.1198808016112</v>
-      </c>
-      <c r="D8" t="n">
-        <v>223.1198808016112</v>
-      </c>
-      <c r="E8" t="n">
-        <v>223.1198808016112</v>
-      </c>
-      <c r="F8" t="n">
-        <v>140.996681329578</v>
-      </c>
       <c r="G8" t="n">
-        <v>27.75157009228141</v>
+        <v>109.8747695643146</v>
       </c>
       <c r="H8" t="n">
         <v>27.75157009228141</v>
@@ -4844,10 +4844,10 @@
         <v>336.3649920389078</v>
       </c>
       <c r="X8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.1198808016112</v>
+        <v>336.3649920389078</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>330.7579075086341</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="C9" t="n">
-        <v>330.7579075086341</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="D9" t="n">
-        <v>330.7579075086341</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="E9" t="n">
-        <v>217.5127962713375</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="F9" t="n">
-        <v>104.2676850340409</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="G9" t="n">
-        <v>104.2676850340409</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2676850340409</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="I9" t="n">
         <v>39.35570072784915</v>
@@ -4890,7 +4890,7 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N9" t="n">
         <v>287.4309731640694</v>
@@ -4905,28 +4905,28 @@
         <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="S9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="T9" t="n">
-        <v>439.100581130178</v>
+        <v>265.8459232024424</v>
       </c>
       <c r="U9" t="n">
-        <v>439.100581130178</v>
+        <v>265.8459232024424</v>
       </c>
       <c r="V9" t="n">
-        <v>330.7579075086341</v>
+        <v>265.8459232024424</v>
       </c>
       <c r="W9" t="n">
-        <v>330.7579075086341</v>
+        <v>152.6008119651458</v>
       </c>
       <c r="X9" t="n">
-        <v>330.7579075086341</v>
+        <v>152.6008119651458</v>
       </c>
       <c r="Y9" t="n">
-        <v>330.7579075086341</v>
+        <v>152.6008119651458</v>
       </c>
     </row>
     <row r="10">
@@ -4966,7 +4966,7 @@
         <v>12.63101027343186</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="M10" t="n">
         <v>8.969012809993892</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1565.440264581602</v>
+        <v>1659.057359339774</v>
       </c>
       <c r="C11" t="n">
-        <v>1292.833068744076</v>
+        <v>1290.094842399362</v>
       </c>
       <c r="D11" t="n">
-        <v>934.5673701373257</v>
+        <v>931.8291437926118</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>931.8291437926118</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>520.8432390030043</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>105.7707888480008</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176918</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906804</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645724</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.040104645724</v>
+        <v>2045.657199403896</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.6936570343842</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C13" t="n">
-        <v>608.7574741064773</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D13" t="n">
-        <v>458.6408346941415</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791188</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764913</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1706.391278415849</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1706.391278415849</v>
       </c>
       <c r="U13" t="n">
-        <v>1515.892957112892</v>
+        <v>1706.391278415849</v>
       </c>
       <c r="V13" t="n">
-        <v>1515.892957112892</v>
+        <v>1451.706790209962</v>
       </c>
       <c r="W13" t="n">
-        <v>1226.475787075932</v>
+        <v>1162.289620173002</v>
       </c>
       <c r="X13" t="n">
-        <v>998.4862361779143</v>
+        <v>1162.289620173002</v>
       </c>
       <c r="Y13" t="n">
-        <v>777.6936570343842</v>
+        <v>941.4970410294717</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2269.076741276561</v>
+        <v>2279.173131978494</v>
       </c>
       <c r="C14" t="n">
-        <v>1900.114224336149</v>
+        <v>1910.210615038082</v>
       </c>
       <c r="D14" t="n">
-        <v>1541.848525729399</v>
+        <v>1551.944916431332</v>
       </c>
       <c r="E14" t="n">
-        <v>1156.060273131155</v>
+        <v>1223.631456588102</v>
       </c>
       <c r="F14" t="n">
-        <v>745.0743683415471</v>
+        <v>812.6455517984944</v>
       </c>
       <c r="G14" t="n">
-        <v>397.9052307464398</v>
+        <v>397.9052307464399</v>
       </c>
       <c r="H14" t="n">
-        <v>103.7230475307833</v>
+        <v>103.7230475307834</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169295</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773515</v>
+        <v>291.0377674773526</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055982</v>
+        <v>666.2644720055996</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645698</v>
+        <v>1168.6681406457</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275285</v>
+        <v>1759.358462275287</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.22057923539</v>
+        <v>2364.220579235392</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163073</v>
+        <v>2922.039463163074</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140402</v>
+        <v>3363.623974140403</v>
       </c>
       <c r="Q14" t="n">
         <v>3647.062805049512</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584648</v>
+        <v>3726.527800584649</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045193</v>
+        <v>3623.805524045194</v>
       </c>
       <c r="T14" t="n">
-        <v>3419.281671577575</v>
+        <v>3623.805524045194</v>
       </c>
       <c r="U14" t="n">
-        <v>3419.281671577575</v>
+        <v>3370.301617647267</v>
       </c>
       <c r="V14" t="n">
-        <v>3419.281671577575</v>
+        <v>3039.238730303696</v>
       </c>
       <c r="W14" t="n">
-        <v>3419.281671577575</v>
+        <v>3039.238730303696</v>
       </c>
       <c r="X14" t="n">
-        <v>3045.815913316495</v>
+        <v>2665.772972042616</v>
       </c>
       <c r="Y14" t="n">
-        <v>2655.676581340683</v>
+        <v>2665.772972042616</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718611</v>
+        <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169295</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J15" t="n">
-        <v>74.53055601169295</v>
+        <v>159.4390058218821</v>
       </c>
       <c r="K15" t="n">
-        <v>340.9191340937598</v>
+        <v>159.4390058218821</v>
       </c>
       <c r="L15" t="n">
-        <v>745.4339928726399</v>
+        <v>563.9538646007622</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.840621506596</v>
+        <v>1055.360493234718</v>
       </c>
       <c r="N15" t="n">
-        <v>1755.66196629018</v>
+        <v>1574.181838018303</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.062341591414</v>
+        <v>2026.582213319536</v>
       </c>
       <c r="P15" t="n">
-        <v>2551.820460848995</v>
+        <v>2370.340332577117</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.886573990975</v>
+        <v>2550.214335272918</v>
       </c>
       <c r="R15" t="n">
         <v>2560.886573990975</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>716.7695149350707</v>
+        <v>634.3418636356864</v>
       </c>
       <c r="C16" t="n">
-        <v>687.004091447983</v>
+        <v>465.4056807077795</v>
       </c>
       <c r="D16" t="n">
-        <v>536.8874520356472</v>
+        <v>315.2890412954438</v>
       </c>
       <c r="E16" t="n">
-        <v>388.9743584532541</v>
+        <v>167.3759477130506</v>
       </c>
       <c r="F16" t="n">
-        <v>242.0844109553438</v>
+        <v>167.3759477130506</v>
       </c>
       <c r="G16" t="n">
-        <v>74.53055601169295</v>
+        <v>167.3759477130506</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169295</v>
+        <v>167.3759477130506</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169295</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J16" t="n">
         <v>129.976586552547</v>
@@ -5461,25 +5461,25 @@
         <v>2080.068878389594</v>
       </c>
       <c r="S16" t="n">
-        <v>1890.979338613557</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="T16" t="n">
-        <v>1890.979338613557</v>
+        <v>1858.938821053358</v>
       </c>
       <c r="U16" t="n">
-        <v>1601.884598012744</v>
+        <v>1569.844080452545</v>
       </c>
       <c r="V16" t="n">
-        <v>1347.200109806857</v>
+        <v>1315.159592246658</v>
       </c>
       <c r="W16" t="n">
-        <v>1347.200109806857</v>
+        <v>1025.742422209698</v>
       </c>
       <c r="X16" t="n">
-        <v>1119.21055890884</v>
+        <v>1025.742422209698</v>
       </c>
       <c r="Y16" t="n">
-        <v>898.4179797653104</v>
+        <v>815.9903284659262</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5516,25 +5516,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
         <v>4249.020448755811</v>
@@ -5558,7 +5558,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1390.738552529597</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N18" t="n">
-        <v>1968.593900456</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897931</v>
@@ -5671,13 +5671,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5698,13 +5698,13 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5713,10 +5713,10 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511622</v>
@@ -5750,46 +5750,46 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076857</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951477</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V20" t="n">
         <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X20" t="n">
         <v>2834.342818501802</v>
@@ -5814,40 +5814,40 @@
         <v>618.1705534421001</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9330984366446</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3985404635296</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G21" t="n">
-        <v>176.4447347764804</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>326.5159252754122</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>875.4343898857009</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812103</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502096</v>
+        <v>872.862419750212</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039798</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F22" t="n">
         <v>386.7245456315381</v>
       </c>
       <c r="G22" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5975,7 +5975,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5987,10 +5987,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -5999,7 +5999,7 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6017,22 +6017,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,7 +6060,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
         <v>84.98040897511622</v>
@@ -6069,25 +6069,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>235.0538732027192</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L24" t="n">
-        <v>688.8525027970467</v>
+        <v>326.5159252754111</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.770967407336</v>
+        <v>875.4343898857002</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.626315333738</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O24" t="n">
-        <v>2322.031270281988</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281988</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354973</v>
@@ -6166,7 +6166,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352543</v>
@@ -6175,19 +6175,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6203,16 +6203,16 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
@@ -6227,22 +6227,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767228</v>
@@ -6254,22 +6254,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6312,13 +6312,13 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
         <v>2555.644190323788</v>
@@ -6367,13 +6367,13 @@
         <v>617.6685920609038</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039793</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315377</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
@@ -6382,19 +6382,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.174278704278</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313935</v>
@@ -6418,10 +6418,10 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073042</v>
@@ -6446,25 +6446,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
         <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511683</v>
+        <v>84.98040897511598</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076842</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6473,7 +6473,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6482,31 +6482,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L30" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M30" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502102</v>
+        <v>872.862419750211</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039809</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6646,13 +6646,13 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357084</v>
@@ -6661,10 +6661,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400162</v>
@@ -6771,22 +6771,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334502</v>
+        <v>468.6667932445187</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388462</v>
       </c>
       <c r="M33" t="n">
-        <v>1471.383887449136</v>
+        <v>1471.383887449135</v>
       </c>
       <c r="N33" t="n">
         <v>2049.239235375538</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042766</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443594</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
         <v>2144.901839127668</v>
@@ -6892,16 +6892,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J35" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M36" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N36" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O36" t="n">
-        <v>2171.957806054385</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502086</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477701</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609029</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039783</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315364</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749422</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.057470989791</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J37" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L37" t="n">
         <v>857.3827676902786</v>
@@ -7123,22 +7123,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.178257479669</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162853</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511765</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889755</v>
@@ -7190,34 +7190,34 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J39" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L39" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.171002464469</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O39" t="n">
         <v>2555.644190323788</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609048</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902788</v>
@@ -7354,13 +7354,13 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237502</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796669</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J41" t="n">
         <v>337.4933016076839</v>
@@ -7415,13 +7415,13 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7430,31 +7430,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L42" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M42" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O42" t="n">
-        <v>2171.957806054385</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042766</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443594</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J44" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.171002464469</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O45" t="n">
         <v>2555.644190323788</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042784</v>
@@ -7810,7 +7810,7 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,37 +7819,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
   </sheetData>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.6362413227214</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775034</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272135</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
         <v>106.7437663446525</v>
@@ -11236,7 +11236,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775177</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>95.39176789185667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>255.7416786956613</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>60.00694102557279</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>157.6254411412575</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>56.90004482746397</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>66.89547162237763</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>137.7790518464111</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
         <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434403</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>82.30038209396098</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>10.93008054576043</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.950555891571313e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.575699570821598e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-2.742694960033987e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3.055333763768431e-13</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-4.141132009537592e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.231104190286715e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952380.6773303279</v>
+        <v>952380.6773303277</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1143571.088723685</v>
+        <v>1143571.088723686</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.663699106</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991062</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
-        <v>255747.8242281906</v>
+        <v>255747.8242281904</v>
       </c>
       <c r="F2" t="n">
-        <v>269546.2291049205</v>
+        <v>269546.2291049204</v>
       </c>
       <c r="G2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="H2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="I2" t="n">
         <v>307890.6636991061</v>
@@ -26341,7 +26341,7 @@
         <v>307890.6636991062</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991057</v>
+        <v>307890.6636991056</v>
       </c>
       <c r="M2" t="n">
         <v>307890.663699106</v>
@@ -26350,10 +26350,10 @@
         <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991056</v>
+        <v>307890.6636991058</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.663699106</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.597032182</v>
+        <v>345405.5970321815</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876548</v>
+        <v>50948.63134876598</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429535</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654287</v>
+        <v>93369.88484654301</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975338</v>
+        <v>143964.0818975337</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>4.793598691321677e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757363</v>
+        <v>4764.558968757457</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908586</v>
+        <v>8128.948714908983</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194628</v>
+        <v>41060.19902194626</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613161</v>
+        <v>24549.15438613172</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875968</v>
+        <v>31434.59456875962</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318204</v>
+        <v>348982.9265318207</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26430,34 +26430,34 @@
         <v>15311.76636570053</v>
       </c>
       <c r="G4" t="n">
-        <v>46449.25880112084</v>
+        <v>46449.25880112078</v>
       </c>
       <c r="H4" t="n">
-        <v>46449.25880112084</v>
+        <v>46449.25880112091</v>
       </c>
       <c r="I4" t="n">
         <v>46449.2588011208</v>
       </c>
       <c r="J4" t="n">
-        <v>46449.25880112079</v>
+        <v>46449.25880112078</v>
       </c>
       <c r="K4" t="n">
-        <v>46449.25880112081</v>
+        <v>46449.25880112071</v>
       </c>
       <c r="L4" t="n">
-        <v>46449.25880112082</v>
+        <v>46449.25880112078</v>
       </c>
       <c r="M4" t="n">
-        <v>46449.25880112078</v>
+        <v>46449.25880112067</v>
       </c>
       <c r="N4" t="n">
-        <v>46449.25880112083</v>
+        <v>46449.2588011207</v>
       </c>
       <c r="O4" t="n">
-        <v>46449.25880112084</v>
+        <v>46449.25880112074</v>
       </c>
       <c r="P4" t="n">
-        <v>46449.25880112078</v>
+        <v>46449.25880112073</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425676</v>
+        <v>42410.88882425673</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26479,37 +26479,37 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390699</v>
+        <v>82183.39720390702</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="H5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215531</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428908.7486891531</v>
+        <v>-428908.7486891529</v>
       </c>
       <c r="C6" t="n">
-        <v>-121621.1930875721</v>
+        <v>-121621.1930875726</v>
       </c>
       <c r="D6" t="n">
-        <v>-135445.7161180884</v>
+        <v>-135445.7161180885</v>
       </c>
       <c r="E6" t="n">
-        <v>-541599.2727633587</v>
+        <v>-541946.8916931647</v>
       </c>
       <c r="F6" t="n">
-        <v>78681.18068877011</v>
+        <v>78425.55112480861</v>
       </c>
       <c r="G6" t="n">
-        <v>22370.88889829608</v>
+        <v>22370.88889829633</v>
       </c>
       <c r="H6" t="n">
-        <v>166334.9707958302</v>
+        <v>166334.97079583</v>
       </c>
       <c r="I6" t="n">
-        <v>166334.9707958296</v>
+        <v>166334.9707958301</v>
       </c>
       <c r="J6" t="n">
-        <v>161570.4118270727</v>
+        <v>161570.4118270726</v>
       </c>
       <c r="K6" t="n">
-        <v>158206.0220809216</v>
+        <v>158206.0220809212</v>
       </c>
       <c r="L6" t="n">
         <v>125274.7717738833</v>
       </c>
       <c r="M6" t="n">
-        <v>-12914.67414247149</v>
+        <v>-12914.67414247147</v>
       </c>
       <c r="N6" t="n">
         <v>141785.8164096986</v>
       </c>
       <c r="O6" t="n">
-        <v>134900.3762270698</v>
+        <v>134900.3762270701</v>
       </c>
       <c r="P6" t="n">
-        <v>166334.9707958301</v>
+        <v>166334.97079583</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I2" t="n">
         <v>31.61020235221394</v>
@@ -26710,22 +26710,22 @@
         <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228091</v>
+        <v>352.1154025228087</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26753,7 +26753,7 @@
         <v>1278.159870620123</v>
       </c>
       <c r="H3" t="n">
-        <v>1278.159870620122</v>
+        <v>1278.159870620123</v>
       </c>
       <c r="I3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703158</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,10 +26796,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461619</v>
+        <v>931.6319501461621</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221404</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228091</v>
+        <v>352.1154025228087</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475892</v>
+        <v>44.74454074475938</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.660949394796</v>
+        <v>613.6609493947958</v>
       </c>
       <c r="F3" t="n">
         <v>81.79094321497519</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703158</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009304</v>
+        <v>31.58492398009333</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
-        <v>100.230494743869</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427909</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703158</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009304</v>
+        <v>31.58492398009355</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
@@ -27045,10 +27045,10 @@
         <v>719.2887952773692</v>
       </c>
       <c r="N4" t="n">
-        <v>100.230494743869</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427909</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703158</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009304</v>
+        <v>31.58492398009333</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>100.230494743869</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427909</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27397,13 +27397,13 @@
         <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517703</v>
+        <v>155.9033104517704</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107713</v>
+        <v>60.90377530107729</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996234</v>
+        <v>29.24248535879385</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16.89121642738366</v>
+        <v>27.67667403855381</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621832</v>
+        <v>69.44336957621852</v>
       </c>
       <c r="R2" t="n">
-        <v>126.6666668443898</v>
+        <v>126.6666668443899</v>
       </c>
       <c r="S2" t="n">
         <v>176.7634676365428</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493832</v>
+        <v>216.8993262493833</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.3231006028358</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5861368634446</v>
+        <v>118.3760538164133</v>
       </c>
       <c r="H3" t="n">
-        <v>104.9207450255981</v>
+        <v>86.7106619785668</v>
       </c>
       <c r="I3" t="n">
-        <v>73.44590915279196</v>
+        <v>73.445909152792</v>
       </c>
       <c r="J3" t="n">
-        <v>37.07171450884425</v>
+        <v>55.28179755587591</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,16 +27500,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.09276014253863</v>
+        <v>25.09276014253904</v>
       </c>
       <c r="R3" t="n">
-        <v>98.65548851006878</v>
+        <v>98.15717714148711</v>
       </c>
       <c r="S3" t="n">
         <v>157.6151642200256</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918172</v>
+        <v>197.1119545918173</v>
       </c>
       <c r="U3" t="n">
         <v>225.8915544296744</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.1966717923375</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27558,28 +27558,28 @@
         <v>136.3554298199558</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956191</v>
+        <v>82.10359380956197</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018294</v>
+        <v>55.24219515018304</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323795</v>
+        <v>40.48311410323807</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660839</v>
+        <v>39.39257270660852</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988156</v>
+        <v>30.51901051988169</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406185</v>
+        <v>48.70751749406196</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728778</v>
+        <v>60.93221199728788</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850166</v>
+        <v>98.33557584850173</v>
       </c>
       <c r="R4" t="n">
         <v>148.7431818545824</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>357.0810387145868</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>376.8628447972719</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27637,7 +27637,7 @@
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
       </c>
       <c r="S5" t="n">
-        <v>172.6645079492214</v>
+        <v>122.8695009220968</v>
       </c>
       <c r="T5" t="n">
-        <v>216.1119122710508</v>
+        <v>204.008916807581</v>
       </c>
       <c r="U5" t="n">
         <v>251.2180195592479</v>
@@ -27698,13 +27698,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>134.6031353021189</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>107.8500734282763</v>
+        <v>141.1970902293413</v>
       </c>
       <c r="F6" t="n">
-        <v>95.27420536625925</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
@@ -27716,7 +27716,7 @@
         <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>92.6799817290989</v>
+        <v>42.88497470197427</v>
       </c>
       <c r="S6" t="n">
         <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>146.9290208388017</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>176.0902156279161</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>325.5740782643986</v>
+        <v>294.7633856167878</v>
       </c>
       <c r="G8" t="n">
         <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>238.5707424295633</v>
       </c>
       <c r="I8" t="n">
         <v>136.685125759028</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>54.42052352494369</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,10 +27938,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047729</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
@@ -27950,7 +27950,7 @@
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>106.610376505446</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>125.5413402640968</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28038,10 +28038,10 @@
         <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>3.613446413741165</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>0.7157523946084789</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605506</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624357</v>
+        <v>1.415539306624355</v>
       </c>
       <c r="H2" t="n">
-        <v>14.4968919239667</v>
+        <v>14.49689192396668</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863558</v>
+        <v>54.57257911863552</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256092</v>
+        <v>120.142129225609</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750182</v>
+        <v>180.061908075018</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301234</v>
+        <v>223.3827191301231</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743044</v>
+        <v>248.556316274304</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436225</v>
+        <v>247.6231466436222</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490049</v>
+        <v>238.5024483490045</v>
       </c>
       <c r="P2" t="n">
-        <v>203.556321716716</v>
+        <v>203.5563217167157</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982312</v>
+        <v>152.862320298231</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974236</v>
+        <v>88.91887096974224</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970257</v>
+        <v>32.25660194970253</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748127</v>
+        <v>6.196523314748119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299485</v>
+        <v>0.1132431445299484</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660423</v>
+        <v>0.7573802997660413</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898357</v>
+        <v>7.314699210898348</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720804</v>
+        <v>26.076470847208</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079087</v>
+        <v>71.55582911079078</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951157</v>
+        <v>122.3003091951155</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269058</v>
+        <v>145.3766904889289</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690499</v>
+        <v>160.3441169690496</v>
       </c>
       <c r="N3" t="n">
-        <v>148.8160341991717</v>
+        <v>149.5517951303646</v>
       </c>
       <c r="O3" t="n">
-        <v>160.806327491476</v>
+        <v>160.8063274914757</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>144.6264188211136</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645131</v>
+        <v>96.67893089645118</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389517</v>
+        <v>47.02401545389511</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381222</v>
+        <v>14.0680068838122</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004353</v>
+        <v>3.052774103004349</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039754</v>
+        <v>0.04982765130039747</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706393</v>
+        <v>0.6349622012706385</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660779</v>
+        <v>5.645391207660772</v>
       </c>
       <c r="I4" t="n">
-        <v>19.0950451073025</v>
+        <v>19.09504510730248</v>
       </c>
       <c r="J4" t="n">
-        <v>44.8918276298342</v>
+        <v>44.89182762983414</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035244</v>
+        <v>73.77106302035234</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800033</v>
+        <v>94.40156217800022</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099666</v>
+        <v>99.53321124099654</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535163</v>
+        <v>97.1665339453515</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778094</v>
+        <v>89.74902095778083</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185983</v>
+        <v>76.79579205185973</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094417</v>
+        <v>53.16942578094411</v>
       </c>
       <c r="R4" t="n">
-        <v>28.5502095225871</v>
+        <v>28.55020952258707</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305286</v>
+        <v>11.06565945305285</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314520004</v>
+        <v>2.71302031452</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748946</v>
+        <v>0.03463430188748941</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31373,7 +31373,7 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>191.9290409491429</v>
+        <v>163.8914845489273</v>
       </c>
       <c r="N6" t="n">
         <v>181.1367191104579</v>
@@ -31382,7 +31382,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
-        <v>134.9670493543445</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31610,10 +31610,10 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>199.9629954989595</v>
       </c>
       <c r="N9" t="n">
-        <v>189.1706736602745</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -32075,10 +32075,10 @@
         <v>86.76232079146178</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>212.6037375860496</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744265</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>547.1552472332885</v>
@@ -32096,10 +32096,10 @@
         <v>481.204830906836</v>
       </c>
       <c r="Q15" t="n">
-        <v>149.1394641284262</v>
+        <v>321.6726858999622</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>156.4595430731125</v>
       </c>
       <c r="S15" t="n">
         <v>46.80744312762297</v>
@@ -32312,7 +32312,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
         <v>443.943509024727</v>
@@ -32321,16 +32321,16 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N18" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>344.5646629450837</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171342</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879727</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383703</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171634</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869748</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654294</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117587</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565674</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829623</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734506</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537073</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,40 +32543,40 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781096</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>382.5296487700721</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879665</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160626</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578281</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892348</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691325</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486995</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051419</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151665</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692046</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381983</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227497</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925529</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1257206430118154</v>
+        <v>0.1257206430118155</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>156.5246331350997</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>249.6234851251522</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33032,16 +33032,16 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I29" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L29" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R29" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N30" t="n">
-        <v>475.6116682468181</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T30" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,40 +33336,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J31" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K31" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P31" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R31" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H32" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I32" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L32" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R32" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S32" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T32" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H33" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K33" t="n">
-        <v>443.943509024727</v>
+        <v>392.4972796419678</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T33" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,40 +33573,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I34" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J34" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K34" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L34" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M34" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N34" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P34" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R34" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H35" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I35" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L35" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R35" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S35" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T35" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H36" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P36" t="n">
-        <v>521.5364117268584</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T36" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,40 +33810,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I37" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J37" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K37" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L37" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M37" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N37" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O37" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P37" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q37" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R37" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I38" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L38" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R38" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T38" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K39" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>602.6701715750701</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T39" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,40 +34047,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J40" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K40" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P40" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R40" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H41" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I41" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L41" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R41" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T41" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H42" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P42" t="n">
-        <v>310.5788945437474</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T42" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,40 +34284,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J43" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K43" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L43" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P43" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R43" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I44" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L44" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R44" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T44" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K45" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O45" t="n">
-        <v>602.6701715750701</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T45" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,40 +34521,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J46" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K46" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P46" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R46" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703158</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703158</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927318124</v>
+        <v>8.404236927317811</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703158</v>
+        <v>6.822310709054721</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703158</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="N3" t="n">
-        <v>17.47432211583838</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="O3" t="n">
-        <v>18.21008304703158</v>
+        <v>18.2100830470313</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.6520114067834</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="N6" t="n">
         <v>49.79500702712463</v>
@@ -35030,7 +35030,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9926419400142784</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
+        <v>57.82896157694119</v>
+      </c>
+      <c r="N9" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="N9" t="n">
-        <v>57.82896157694119</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306605</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>85.76611091938292</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000675</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>408.6008674534143</v>
@@ -35744,10 +35744,10 @@
         <v>347.2304234925057</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.157690042404669</v>
+        <v>181.6909118139407</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.78003910914856</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
         <v>306.102070050368</v>
@@ -35969,16 +35969,16 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N18" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>201.9684185006393</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721828</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381567</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151679</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348807</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276927</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>243.9752689901979</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659482</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327293</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133837</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749045</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.957517183111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>18.6831941607407</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>111.069105345278</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36680,16 +36680,16 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P29" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N30" t="n">
-        <v>344.2699561634848</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
@@ -37005,7 +37005,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
         <v>138.4502995641581</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P32" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449188</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K33" t="n">
-        <v>306.102070050368</v>
+        <v>254.6558406676088</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193539</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37245,7 +37245,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.450299564157</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L35" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P35" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P36" t="n">
-        <v>387.5620043125282</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
@@ -37479,10 +37479,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.406731072817976e-12</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P38" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.9061636449188</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K39" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>460.0739271306256</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P41" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P42" t="n">
-        <v>176.6044871294172</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193539</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -37956,7 +37956,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641584</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449188</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K45" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O45" t="n">
-        <v>460.0739271306256</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
